--- a/Team_ZYY_Report.xlsx
+++ b/Team_ZYY_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="295">
   <si>
     <t>Initials</t>
   </si>
@@ -144,415 +144,523 @@
     <t>Marriage before divorce</t>
   </si>
   <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriage to descendants</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent birth</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ZY</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>T23.01</t>
+  </si>
+  <si>
+    <t>Store names and birthdates</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Store current date</t>
+  </si>
+  <si>
+    <t>Determine and unite the standard input and output formats firstly</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Store dates</t>
+  </si>
+  <si>
+    <t>Continue using the designed standard input and output format.</t>
+  </si>
+  <si>
+    <t>If coming across some problem, ask for help would be fine.</t>
+  </si>
+  <si>
+    <t>T23.02</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>Compare names and birthdates</t>
+  </si>
+  <si>
+    <t>Compare dates and current date</t>
+  </si>
+  <si>
+    <t>Solving problem together. Face-to-face meeting would be better.</t>
+  </si>
+  <si>
+    <t>Pair programming</t>
+  </si>
+  <si>
+    <t>T23.03</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Discard duplicated individuals</t>
+  </si>
+  <si>
+    <t>Keep anouncing in group chat when the project gets changed.</t>
+  </si>
+  <si>
+    <t>Doing integration during the face-to-face meeting.</t>
+  </si>
+  <si>
+    <t>Review meeting after the sprint</t>
+  </si>
+  <si>
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>Store parents ID and childrens ID</t>
+  </si>
+  <si>
+    <t>Planning meeting before the sprint</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>Check if parentsID in childrensID</t>
+  </si>
+  <si>
+    <t>T17.03</t>
+  </si>
+  <si>
+    <t>Return True or False</t>
+  </si>
+  <si>
+    <t>Changing others code without telling them and making marks on the code.</t>
+  </si>
+  <si>
+    <t>Doing integration on one's own.</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>get current age</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>compare current age with 150</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>Return compare result</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Store Birth(both 2 people)</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>Compare marriage date to birth</t>
+  </si>
+  <si>
+    <t>get divorce date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>get death date</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Compare divorce date &amp; death date</t>
+  </si>
+  <si>
+    <t>T06.04</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>Store death date of parents</t>
+  </si>
+  <si>
+    <t>T09.03</t>
+  </si>
+  <si>
+    <t>Compare dates</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>get the marriage date</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>get the divorce date</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>Current gender for role</t>
+  </si>
+  <si>
+    <t>compare these two dates</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store gender </t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>Correct gender for each role</t>
+  </si>
+  <si>
+    <t>T04.04</t>
+  </si>
+  <si>
+    <t>return a bool</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Store ID in a set</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Judge whether the ID is in the set</t>
+  </si>
+  <si>
+    <t>T22.03</t>
+  </si>
+  <si>
+    <t>If existed, return false. If not existed, return true.</t>
+  </si>
+  <si>
+    <t>T40.01</t>
+  </si>
+  <si>
+    <t>set a cnt for line counting</t>
+  </si>
+  <si>
+    <t>T40.02</t>
+  </si>
+  <si>
+    <t>T27.01</t>
+  </si>
+  <si>
+    <t>Calculate the date between the birthday and the present date</t>
+  </si>
+  <si>
+    <t>T27.02</t>
+  </si>
+  <si>
+    <t>Display the result as the age</t>
+  </si>
+  <si>
+    <t>add 1 when a line is read</t>
+  </si>
+  <si>
+    <t>T40.03</t>
+  </si>
+  <si>
+    <t>print the line number</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Find deceased people in individual record</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store them into a list</t>
+  </si>
+  <si>
+    <t>T37.01</t>
+  </si>
+  <si>
+    <t>Find recent birth people in individual dictionary</t>
+  </si>
+  <si>
+    <t>T37.02</t>
+  </si>
+  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriage to descendants</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent birth</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>T23.01</t>
-  </si>
-  <si>
-    <t>Store names and birthdates</t>
-  </si>
-  <si>
-    <t>T23.02</t>
-  </si>
-  <si>
-    <t>Compare names and birthdates</t>
-  </si>
-  <si>
-    <t>T23.03</t>
-  </si>
-  <si>
-    <t>Discard duplicated individuals</t>
-  </si>
-  <si>
-    <t>T17.01</t>
-  </si>
-  <si>
-    <t>Store marrige dates and death dates</t>
-  </si>
-  <si>
-    <t>T17.02</t>
-  </si>
-  <si>
-    <t>Compare dates</t>
-  </si>
-  <si>
-    <t>T17.03</t>
-  </si>
-  <si>
-    <t>Return True or False</t>
-  </si>
-  <si>
-    <t>ZY</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>get current age</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>compare current age with 150</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t>Return compare result</t>
-  </si>
-  <si>
-    <t>T06.01</t>
-  </si>
-  <si>
-    <t>get divorce date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>get death date</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Compare divorce date &amp; death date</t>
-  </si>
-  <si>
-    <t>T06.04</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>get the marriage date</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>get the divorce date</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
-    <t>compare these two dates</t>
-  </si>
-  <si>
-    <t>T04.04</t>
-  </si>
-  <si>
-    <t>return a bool</t>
-  </si>
-  <si>
-    <t>T40.01</t>
-  </si>
-  <si>
-    <t>set a cnt for line counting</t>
-  </si>
-  <si>
-    <t>T40.02</t>
-  </si>
-  <si>
-    <t>add 1 when a line is read</t>
-  </si>
-  <si>
-    <t>T40.03</t>
-  </si>
-  <si>
-    <t>print the line number</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store current date</t>
-  </si>
-  <si>
-    <t>Determine and unite the standard input and output formats firstly</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store dates</t>
-  </si>
-  <si>
-    <t>If coming across some problem, ask for help would be fine.</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Compare dates and current date</t>
-  </si>
-  <si>
-    <t>Pair programming</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Changing others code without telling them and making marks on the code.</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Store Birth(both 2 people)</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth</t>
-  </si>
-  <si>
-    <t>T09.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T09.02</t>
-  </si>
-  <si>
-    <t>Store death date of parents</t>
-  </si>
-  <si>
-    <t>T09.03</t>
-  </si>
-  <si>
-    <t>Current gender for role</t>
-  </si>
-  <si>
-    <t>T21.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store gender </t>
-  </si>
-  <si>
-    <t>T21.02</t>
-  </si>
-  <si>
-    <t>Correct gender for each role</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>Store ID in a set</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>Judge whether the ID is in the set</t>
-  </si>
-  <si>
-    <t>T22.03</t>
-  </si>
-  <si>
-    <t>If existed, return false. If not existed, return true.</t>
-  </si>
-  <si>
-    <t>T27.01</t>
-  </si>
-  <si>
-    <t>Calculate the date between the birthday and the present date</t>
-  </si>
-  <si>
-    <t>T27.02</t>
-  </si>
-  <si>
-    <t>Display the result as the age</t>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>read the family dictionary</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>get all individuals in non-divorce family</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
+  <si>
+    <t>check whether the individual is alive</t>
+  </si>
+  <si>
+    <t>T30.04</t>
+  </si>
+  <si>
+    <t>if yes, add the individual in the list</t>
+  </si>
+  <si>
+    <t>T30.05</t>
+  </si>
+  <si>
+    <t>print the list</t>
+  </si>
+  <si>
+    <t>T3101</t>
+  </si>
+  <si>
+    <t>T3102</t>
+  </si>
+  <si>
+    <t>get all individuals in non-divorce family and store them in a "married" list</t>
+  </si>
+  <si>
+    <t>T3103</t>
+  </si>
+  <si>
+    <t>iterate the individual dictionary</t>
+  </si>
+  <si>
+    <t>T3104</t>
+  </si>
+  <si>
+    <t>if the individual is not in the list and is older than 30, add the individual in the "single" list</t>
+  </si>
+  <si>
+    <t>T3105</t>
+  </si>
+  <si>
+    <t>print the "single" list</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -806,7 +914,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -828,6 +936,11 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -871,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -906,28 +1019,40 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,11 +1095,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="524013408"/>
-        <c:axId val="1133610837"/>
+        <c:axId val="2130809596"/>
+        <c:axId val="164393649"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="524013408"/>
+        <c:axId val="2130809596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,10 +1114,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1133610837"/>
+        <c:crossAx val="164393649"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1133610837"/>
+        <c:axId val="164393649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1148,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524013408"/>
+        <c:crossAx val="2130809596"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1067,11 +1192,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1493357185"/>
-        <c:axId val="1389448686"/>
+        <c:axId val="18992577"/>
+        <c:axId val="194276660"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1493357185"/>
+        <c:axId val="18992577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,10 +1211,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1389448686"/>
+        <c:crossAx val="194276660"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1389448686"/>
+        <c:axId val="194276660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1493357185"/>
+        <c:crossAx val="18992577"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1151,7 +1276,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1814,6 +1939,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2923,12 +3051,18 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E9"/>
   </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3096,7 +3230,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3104,16 +3238,16 @@
         <v>2.0</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3121,16 +3255,16 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -3138,16 +3272,16 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -3155,16 +3289,16 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -3172,16 +3306,16 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -3189,13 +3323,16 @@
         <v>3.0</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -3210,6 +3347,9 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -4335,12 +4475,18 @@
     <row r="1003" ht="12.75" customHeight="1"/>
     <row r="1004" ht="12.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4350,7 +4496,7 @@
     <col customWidth="1" min="2" max="2" width="11.14"/>
     <col customWidth="1" min="3" max="3" width="15.86"/>
     <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="11.29"/>
+    <col customWidth="1" min="5" max="5" width="15.14"/>
     <col customWidth="1" min="6" max="6" width="18.43"/>
     <col customWidth="1" min="7" max="7" width="15.29"/>
     <col customWidth="1" min="8" max="26" width="10.71"/>
@@ -8503,12 +8649,18 @@
       <c r="F1000" s="7"/>
     </row>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8598,8 +8750,25 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="13">
+        <v>43178.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>(D4-D3)/E4*60</f>
+        <v>53.4</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
@@ -12586,12 +12755,18 @@
       <c r="F1000" s="7"/>
     </row>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12606,7 +12781,7 @@
     <col customWidth="1" min="7" max="7" width="14.29"/>
     <col customWidth="1" min="8" max="8" width="12.57"/>
     <col customWidth="1" min="9" max="9" width="19.86"/>
-    <col customWidth="1" min="10" max="10" width="41.57"/>
+    <col customWidth="1" min="10" max="10" width="66.14"/>
     <col customWidth="1" min="11" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -12639,7 +12814,7 @@
         <v>97</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -12650,7 +12825,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -12667,72 +12842,72 @@
       <c r="H2" s="2">
         <v>30.0</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>139</v>
+      <c r="I2" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="J3" s="14" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>143</v>
+        <v>100</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="J7" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -12749,11 +12924,11 @@
       <c r="H8" s="2">
         <v>20.0</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>151</v>
+      <c r="I8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -12762,37 +12937,37 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>157</v>
+        <v>142</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -12804,7 +12979,7 @@
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -12825,21 +13000,21 @@
       <c r="H14" s="2">
         <v>60.0</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>139</v>
+      <c r="I14" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -12848,10 +13023,10 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -12860,15 +13035,15 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>107</v>
+        <v>155</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="B19" s="5"/>
@@ -12877,8 +13052,8 @@
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>163</v>
+      <c r="B20" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -12898,8 +13073,8 @@
       <c r="H20" s="2">
         <v>5.0</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>139</v>
+      <c r="I20" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -12910,7 +13085,7 @@
       <c r="A22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -12922,7 +13097,7 @@
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="22" t="s">
         <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -12959,8 +13134,8 @@
       <c r="H25" s="2">
         <v>30.0</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>139</v>
+      <c r="I25" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -12969,10 +13144,10 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -12981,10 +13156,10 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -12993,10 +13168,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -13032,8 +13207,8 @@
       <c r="H31" s="2">
         <v>50.0</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>139</v>
+      <c r="I31" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -13042,10 +13217,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -13054,10 +13229,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -16889,12 +17064,18 @@
       <c r="I990" s="6"/>
     </row>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16907,8 +17088,9 @@
     <col customWidth="1" min="6" max="6" width="12.71"/>
     <col customWidth="1" min="7" max="7" width="10.71"/>
     <col customWidth="1" min="8" max="8" width="22.14"/>
-    <col customWidth="1" min="9" max="9" width="23.29"/>
-    <col customWidth="1" min="10" max="26" width="10.71"/>
+    <col customWidth="1" min="9" max="9" width="18.0"/>
+    <col customWidth="1" min="10" max="10" width="71.29"/>
+    <col customWidth="1" min="11" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -16936,22 +17118,25 @@
       <c r="H1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>97</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>40.0</v>
@@ -16959,60 +17144,88 @@
       <c r="F2" s="2">
         <v>30.0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="B3" s="5"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="16" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="5"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>20.0</v>
@@ -17020,55 +17233,84 @@
       <c r="F8" s="2">
         <v>20.0</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="B9" s="5"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="I13" s="20"/>
+      <c r="J13" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -17080,55 +17322,70 @@
         <v>20.0</v>
       </c>
       <c r="G14" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H14" s="2">
         <v>5.0</v>
       </c>
+      <c r="I14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -17145,41 +17402,59 @@
       <c r="H19" s="2">
         <v>25.0</v>
       </c>
+      <c r="I19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
+        <v>137</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" t="s">
         <v>39</v>
@@ -17199,59 +17474,77 @@
       <c r="F26" s="2">
         <v>20.0</v>
       </c>
-      <c r="G26" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5.0</v>
-      </c>
+      <c r="G26" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+        <v>169</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2">
         <v>20.0</v>
@@ -17259,29 +17552,39 @@
       <c r="F33" s="2">
         <v>20.0</v>
       </c>
+      <c r="G33" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1"/>
@@ -18249,12 +18552,1350 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.71"/>
+    <col customWidth="1" min="2" max="2" width="85.29"/>
+    <col customWidth="1" min="3" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="15.71"/>
+    <col customWidth="1" min="6" max="6" width="12.71"/>
+    <col customWidth="1" min="7" max="7" width="10.71"/>
+    <col customWidth="1" min="8" max="8" width="22.14"/>
+    <col customWidth="1" min="9" max="9" width="23.29"/>
+    <col customWidth="1" min="10" max="26" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19300,1063 +20941,18 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="17.57"/>
-    <col customWidth="1" min="3" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="15.71"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="22.14"/>
-    <col customWidth="1" min="9" max="9" width="23.29"/>
-    <col customWidth="1" min="10" max="26" width="10.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20376,7 +20972,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -20409,8 +21005,8 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>179</v>
+      <c r="C2" s="27" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -20420,19 +21016,19 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>180</v>
+      <c r="C3" s="27" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>181</v>
+      <c r="C4" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -20442,8 +21038,8 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>182</v>
+      <c r="C5" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -20453,41 +21049,41 @@
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>183</v>
+      <c r="C6" s="27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>184</v>
+      <c r="C7" s="27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>185</v>
+      <c r="C8" s="27" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>188</v>
+        <v>223</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -20497,8 +21093,8 @@
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>189</v>
+      <c r="C10" s="27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -20508,30 +21104,30 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>190</v>
+      <c r="C11" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>193</v>
+        <v>228</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>196</v>
+        <v>231</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -20541,8 +21137,8 @@
       <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>197</v>
+      <c r="C14" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -20552,41 +21148,41 @@
       <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>198</v>
+      <c r="C15" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>201</v>
+        <v>236</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>204</v>
+        <v>239</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>206</v>
+        <v>241</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -20596,19 +21192,19 @@
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>207</v>
+      <c r="C19" s="27" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>210</v>
+        <v>245</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -20618,8 +21214,8 @@
       <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>211</v>
+      <c r="C21" s="27" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -20629,8 +21225,8 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>212</v>
+      <c r="C22" s="27" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -20640,52 +21236,52 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>213</v>
+      <c r="C23" s="27" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>214</v>
+      <c r="C24" s="27" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>217</v>
+        <v>252</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>220</v>
+        <v>255</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>223</v>
+        <v>258</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -20695,19 +21291,19 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>224</v>
+      <c r="C28" s="27" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>227</v>
+        <v>262</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -20717,8 +21313,8 @@
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>228</v>
+      <c r="C30" s="27" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -20728,8 +21324,8 @@
       <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>229</v>
+      <c r="C31" s="27" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -20739,63 +21335,63 @@
       <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>230</v>
+      <c r="C32" s="27" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>233</v>
+        <v>268</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>236</v>
+        <v>271</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>239</v>
+        <v>274</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>242</v>
+        <v>277</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>245</v>
+        <v>280</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -20803,54 +21399,54 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>247</v>
+        <v>282</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>250</v>
+        <v>285</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>253</v>
+        <v>288</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>254</v>
+      <c r="C41" s="27" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>257</v>
+        <v>292</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -20860,8 +21456,8 @@
       <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>258</v>
+      <c r="C43" s="27" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -23736,6 +24332,9 @@
       <c r="C1000" s="5"/>
     </row>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Team_ZYY_Report.xlsx
+++ b/Team_ZYY_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="339">
   <si>
     <t>Initials</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Birth before death</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>US05</t>
   </si>
   <si>
@@ -321,16 +318,157 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>T23.01</t>
+  </si>
+  <si>
+    <t>Store names and birthdates</t>
+  </si>
+  <si>
+    <t>Continue using the designed standard input and output format.</t>
+  </si>
+  <si>
+    <t>T23.02</t>
+  </si>
+  <si>
+    <t>Compare names and birthdates</t>
+  </si>
+  <si>
+    <t>Solving problem together. Face-to-face meeting would be better.</t>
+  </si>
+  <si>
+    <t>T23.03</t>
+  </si>
+  <si>
+    <t>Discard duplicated individuals</t>
+  </si>
+  <si>
+    <t>Pair programming</t>
+  </si>
+  <si>
+    <t>Keep anouncing in group chat when the project gets changed.</t>
+  </si>
+  <si>
+    <t>Doing integration during the face-to-face meeting.</t>
+  </si>
+  <si>
+    <t>Review meeting after the sprint</t>
+  </si>
+  <si>
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>Store parents ID and childrens ID</t>
+  </si>
+  <si>
+    <t>Planning meeting before the sprint</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>Check if parentsID in childrensID</t>
+  </si>
+  <si>
+    <t>T17.03</t>
+  </si>
+  <si>
+    <t>Return True or False</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Changing others code without telling them and making marks on the code.</t>
+  </si>
+  <si>
     <t>ZY</t>
   </si>
   <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>T23.01</t>
-  </si>
-  <si>
-    <t>Store names and birthdates</t>
+    <t>Doing integration on one's own.</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>get current age</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>compare current age with 150</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>Return compare result</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>get divorce date</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>get death date</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>Compare divorce date &amp; death date</t>
+  </si>
+  <si>
+    <t>T06.04</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>get the marriage date</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>get the divorce date</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>compare these two dates</t>
+  </si>
+  <si>
+    <t>T04.04</t>
+  </si>
+  <si>
+    <t>return a bool</t>
+  </si>
+  <si>
+    <t>T40.01</t>
+  </si>
+  <si>
+    <t>set a cnt for line counting</t>
+  </si>
+  <si>
+    <t>T40.02</t>
+  </si>
+  <si>
+    <t>add 1 when a line is read</t>
+  </si>
+  <si>
+    <t>T40.03</t>
+  </si>
+  <si>
+    <t>print the line number</t>
   </si>
   <si>
     <t>T01.01</t>
@@ -348,93 +486,15 @@
     <t>Store dates</t>
   </si>
   <si>
-    <t>Continue using the designed standard input and output format.</t>
-  </si>
-  <si>
     <t>If coming across some problem, ask for help would be fine.</t>
   </si>
   <si>
-    <t>T23.02</t>
-  </si>
-  <si>
     <t>T01.03</t>
   </si>
   <si>
-    <t>Compare names and birthdates</t>
-  </si>
-  <si>
     <t>Compare dates and current date</t>
   </si>
   <si>
-    <t>Solving problem together. Face-to-face meeting would be better.</t>
-  </si>
-  <si>
-    <t>Pair programming</t>
-  </si>
-  <si>
-    <t>T23.03</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Discard duplicated individuals</t>
-  </si>
-  <si>
-    <t>Keep anouncing in group chat when the project gets changed.</t>
-  </si>
-  <si>
-    <t>Doing integration during the face-to-face meeting.</t>
-  </si>
-  <si>
-    <t>Review meeting after the sprint</t>
-  </si>
-  <si>
-    <t>T17.01</t>
-  </si>
-  <si>
-    <t>Store parents ID and childrens ID</t>
-  </si>
-  <si>
-    <t>Planning meeting before the sprint</t>
-  </si>
-  <si>
-    <t>T17.02</t>
-  </si>
-  <si>
-    <t>Check if parentsID in childrensID</t>
-  </si>
-  <si>
-    <t>T17.03</t>
-  </si>
-  <si>
-    <t>Return True or False</t>
-  </si>
-  <si>
-    <t>Changing others code without telling them and making marks on the code.</t>
-  </si>
-  <si>
-    <t>Doing integration on one's own.</t>
-  </si>
-  <si>
-    <t>T07.01</t>
-  </si>
-  <si>
-    <t>get current age</t>
-  </si>
-  <si>
-    <t>T07.02</t>
-  </si>
-  <si>
-    <t>compare current age with 150</t>
-  </si>
-  <si>
-    <t>T07.03</t>
-  </si>
-  <si>
-    <t>Return compare result</t>
-  </si>
-  <si>
     <t>T02.01</t>
   </si>
   <si>
@@ -450,30 +510,9 @@
     <t>T02.03</t>
   </si>
   <si>
-    <t>T06.01</t>
-  </si>
-  <si>
     <t>Compare marriage date to birth</t>
   </si>
   <si>
-    <t>get divorce date</t>
-  </si>
-  <si>
-    <t>T06.02</t>
-  </si>
-  <si>
-    <t>get death date</t>
-  </si>
-  <si>
-    <t>T06.03</t>
-  </si>
-  <si>
-    <t>Compare divorce date &amp; death date</t>
-  </si>
-  <si>
-    <t>T06.04</t>
-  </si>
-  <si>
     <t>T09.01</t>
   </si>
   <si>
@@ -492,27 +531,9 @@
     <t>Compare dates</t>
   </si>
   <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>get the marriage date</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t>get the divorce date</t>
-  </si>
-  <si>
-    <t>T04.03</t>
-  </si>
-  <si>
     <t>Current gender for role</t>
   </si>
   <si>
-    <t>compare these two dates</t>
-  </si>
-  <si>
     <t>T21.01</t>
   </si>
   <si>
@@ -525,12 +546,6 @@
     <t>Correct gender for each role</t>
   </si>
   <si>
-    <t>T04.04</t>
-  </si>
-  <si>
-    <t>return a bool</t>
-  </si>
-  <si>
     <t>T22.01</t>
   </si>
   <si>
@@ -549,15 +564,6 @@
     <t>If existed, return false. If not existed, return true.</t>
   </si>
   <si>
-    <t>T40.01</t>
-  </si>
-  <si>
-    <t>set a cnt for line counting</t>
-  </si>
-  <si>
-    <t>T40.02</t>
-  </si>
-  <si>
     <t>T27.01</t>
   </si>
   <si>
@@ -570,97 +576,223 @@
     <t>Display the result as the age</t>
   </si>
   <si>
-    <t>add 1 when a line is read</t>
-  </si>
-  <si>
-    <t>T40.03</t>
-  </si>
-  <si>
-    <t>print the line number</t>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Find deceased people in individual record</t>
+  </si>
+  <si>
+    <t>Using the designed standard input and output format.</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>Store them into a list</t>
+  </si>
+  <si>
+    <t>In person meeting.</t>
+  </si>
+  <si>
+    <t>Keep announcing in group chat when the project gets changed.</t>
+  </si>
+  <si>
+    <t>Doing integration after the meeting.</t>
+  </si>
+  <si>
+    <t>T37.01</t>
+  </si>
+  <si>
+    <t>Find recent birth people in individual dictionary</t>
+  </si>
+  <si>
+    <t>Review meeting after the sprint.</t>
+  </si>
+  <si>
+    <t>T37.02</t>
+  </si>
+  <si>
+    <t>Holding a long meeting over the timebox.</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>read the family dictionary</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>get all individuals in non-divorce family</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
+  <si>
+    <t>check whether the individual is alive</t>
+  </si>
+  <si>
+    <t>T30.04</t>
+  </si>
+  <si>
+    <t>if yes, add the individual in the list</t>
+  </si>
+  <si>
+    <t>T30.05</t>
+  </si>
+  <si>
+    <t>print the list</t>
+  </si>
+  <si>
+    <t>T3101</t>
+  </si>
+  <si>
+    <t>T3102</t>
+  </si>
+  <si>
+    <t>get all individuals in non-divorce family and store them in a "married" list</t>
+  </si>
+  <si>
+    <t>T3103</t>
+  </si>
+  <si>
+    <t>iterate the individual dictionary</t>
+  </si>
+  <si>
+    <t>T3104</t>
+  </si>
+  <si>
+    <t>if the individual is not in the list and is older than 30, add the individual in the "single" list</t>
+  </si>
+  <si>
+    <t>T3105</t>
+  </si>
+  <si>
+    <t>print the "single" list</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>get deathdate</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Get brithdate</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>make comparison</t>
+  </si>
+  <si>
+    <t>T03.04</t>
+  </si>
+  <si>
+    <t>return result</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>get marry date</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>get husband death date</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>get wife death date</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>T05.05</t>
   </si>
   <si>
     <t>coding</t>
   </si>
   <si>
-    <t>T29.01</t>
-  </si>
-  <si>
-    <t>Find deceased people in individual record</t>
-  </si>
-  <si>
-    <t>T29.02</t>
-  </si>
-  <si>
-    <t>Store them into a list</t>
-  </si>
-  <si>
-    <t>T37.01</t>
-  </si>
-  <si>
-    <t>Find recent birth people in individual dictionary</t>
-  </si>
-  <si>
-    <t>T37.02</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T30.01</t>
-  </si>
-  <si>
-    <t>read the family dictionary</t>
-  </si>
-  <si>
-    <t>T30.02</t>
-  </si>
-  <si>
-    <t>get all individuals in non-divorce family</t>
-  </si>
-  <si>
-    <t>T30.03</t>
-  </si>
-  <si>
-    <t>check whether the individual is alive</t>
-  </si>
-  <si>
-    <t>T30.04</t>
-  </si>
-  <si>
-    <t>if yes, add the individual in the list</t>
-  </si>
-  <si>
-    <t>T30.05</t>
-  </si>
-  <si>
-    <t>print the list</t>
-  </si>
-  <si>
-    <t>T3101</t>
-  </si>
-  <si>
-    <t>T3102</t>
-  </si>
-  <si>
-    <t>get all individuals in non-divorce family and store them in a "married" list</t>
-  </si>
-  <si>
-    <t>T3103</t>
-  </si>
-  <si>
-    <t>iterate the individual dictionary</t>
-  </si>
-  <si>
-    <t>T3104</t>
-  </si>
-  <si>
-    <t>if the individual is not in the list and is older than 30, add the individual in the "single" list</t>
-  </si>
-  <si>
-    <t>T3105</t>
-  </si>
-  <si>
-    <t>print the "single" list</t>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>get marriage date</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>get birth date</t>
+  </si>
+  <si>
+    <t>T10.03</t>
+  </si>
+  <si>
+    <t>count marriage age</t>
+  </si>
+  <si>
+    <t>T10.04</t>
+  </si>
+  <si>
+    <t>T42.01</t>
+  </si>
+  <si>
+    <t>get date</t>
+  </si>
+  <si>
+    <t>T42.02</t>
+  </si>
+  <si>
+    <t>check date</t>
+  </si>
+  <si>
+    <t>T42.03</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t>Get the siblings list</t>
+  </si>
+  <si>
+    <t>T18.02</t>
+  </si>
+  <si>
+    <t>Iterate the list and the family dict</t>
+  </si>
+  <si>
+    <t>T18.03</t>
+  </si>
+  <si>
+    <t>If both husband and wife are in the sibling list, print error</t>
+  </si>
+  <si>
+    <t>T20.01</t>
+  </si>
+  <si>
+    <t>Get the nieces and nephews list</t>
+  </si>
+  <si>
+    <t>T20.02</t>
+  </si>
+  <si>
+    <t>Iterate the list</t>
+  </si>
+  <si>
+    <t>T20.03</t>
+  </si>
+  <si>
+    <t>If the spouse is in the list, print error</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -984,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1013,6 +1145,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1028,14 +1163,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1043,11 +1172,17 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1095,11 +1230,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2130809596"/>
-        <c:axId val="164393649"/>
+        <c:axId val="1211798834"/>
+        <c:axId val="833161991"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130809596"/>
+        <c:axId val="1211798834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,10 +1249,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164393649"/>
+        <c:crossAx val="833161991"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164393649"/>
+        <c:axId val="833161991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130809596"/>
+        <c:crossAx val="1211798834"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1192,11 +1327,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18992577"/>
-        <c:axId val="194276660"/>
+        <c:axId val="2119810989"/>
+        <c:axId val="1464890581"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18992577"/>
+        <c:axId val="2119810989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,10 +1346,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194276660"/>
+        <c:crossAx val="1464890581"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194276660"/>
+        <c:axId val="1464890581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18992577"/>
+        <c:crossAx val="2119810989"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3332,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -3340,16 +3475,16 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -3357,13 +3492,16 @@
         <v>3.0</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -3371,13 +3509,16 @@
         <v>3.0</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -3385,13 +3526,16 @@
         <v>3.0</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -3399,13 +3543,16 @@
         <v>3.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -3413,10 +3560,10 @@
         <v>4.0</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -3427,10 +3574,10 @@
         <v>4.0</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -3441,10 +3588,10 @@
         <v>4.0</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -3455,10 +3602,10 @@
         <v>4.0</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -3469,10 +3616,10 @@
         <v>4.0</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -3483,10 +3630,10 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
@@ -4504,19 +4651,19 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -4526,13 +4673,13 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -4542,7 +4689,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -4571,22 +4718,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4610,7 +4757,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="10">
         <v>43142.0</v>
@@ -4626,7 +4773,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="10">
         <v>43157.0</v>
@@ -4651,7 +4798,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="10">
         <v>43178.0</v>
@@ -4676,7 +4823,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="10">
         <v>43192.0</v>
@@ -4701,7 +4848,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="10">
         <v>43213.0</v>
@@ -8677,22 +8824,22 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8766,13 +8913,31 @@
         <v>100.0</v>
       </c>
       <c r="F4" s="7">
-        <f>(D4-D3)/E4*60</f>
+        <f t="shared" ref="F4:F5" si="1">(D4-D3)/E4*60</f>
         <v>53.4</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="13">
+        <v>43192.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>58.2</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="6"/>
@@ -12789,7 +12954,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -12798,23 +12963,23 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -12825,7 +12990,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -12842,72 +13007,72 @@
       <c r="H2" s="2">
         <v>30.0</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="J3" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="J3" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>106</v>
+        <v>121</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="J7" s="14" t="s">
-        <v>118</v>
+      <c r="J7" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -12924,11 +13089,11 @@
       <c r="H8" s="2">
         <v>20.0</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>130</v>
+      <c r="I8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -12937,37 +13102,37 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>139</v>
+        <v>158</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>141</v>
+        <v>160</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -12979,7 +13144,7 @@
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -13000,21 +13165,21 @@
       <c r="H14" s="2">
         <v>60.0</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="14"/>
+      <c r="I14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -13023,27 +13188,27 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="B19" s="5"/>
@@ -13052,8 +13217,8 @@
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>162</v>
+      <c r="B20" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -13073,8 +13238,8 @@
       <c r="H20" s="2">
         <v>5.0</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>99</v>
+      <c r="I20" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -13083,10 +13248,10 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>165</v>
+        <v>171</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -13095,10 +13260,10 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>167</v>
+        <v>173</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -13134,8 +13299,8 @@
       <c r="H25" s="2">
         <v>30.0</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>99</v>
+      <c r="I25" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -13144,10 +13309,10 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -13156,10 +13321,10 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -13168,10 +13333,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -13207,8 +13372,8 @@
       <c r="H31" s="2">
         <v>50.0</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>99</v>
+      <c r="I31" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -13217,10 +13382,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -13229,10 +13394,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -17097,7 +17262,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -17106,30 +17271,30 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -17150,75 +17315,75 @@
       <c r="H2" s="2">
         <v>8.0</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>99</v>
+      <c r="I2" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="J2" s="20"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="B3" s="5"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="16" t="s">
-        <v>101</v>
+      <c r="J3" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="18" t="s">
-        <v>109</v>
+      <c r="J4" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="18" t="s">
-        <v>115</v>
+      <c r="J5" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="18" t="s">
-        <v>116</v>
+      <c r="J6" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="B7" s="5"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="18" t="s">
-        <v>120</v>
+      <c r="J7" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -17239,41 +17404,41 @@
       <c r="H8" s="2">
         <v>30.0</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>121</v>
+      <c r="I8" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="18" t="s">
-        <v>122</v>
+      <c r="J9" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="18" t="s">
-        <v>125</v>
+      <c r="J10" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -17283,23 +17448,23 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="16" t="s">
-        <v>118</v>
+      <c r="J12" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="I13" s="20"/>
-      <c r="J13" s="18" t="s">
-        <v>130</v>
+      <c r="J13" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -17310,7 +17475,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -17327,48 +17492,48 @@
       <c r="H14" s="2">
         <v>5.0</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>131</v>
+      <c r="I14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -17381,11 +17546,11 @@
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -17402,47 +17567,47 @@
       <c r="H19" s="2">
         <v>25.0</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>99</v>
+      <c r="I19" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="J19" s="20"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -17474,53 +17639,53 @@
       <c r="F26" s="2">
         <v>20.0</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="23">
         <v>15.0</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="23">
         <v>20.0</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>99</v>
+      <c r="I26" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="J26" s="20"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -17552,39 +17717,39 @@
       <c r="F33" s="2">
         <v>20.0</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="23">
         <v>20.0</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <v>30.0</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>99</v>
+      <c r="I33" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="J33" s="20"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1"/>
@@ -18577,14 +18742,15 @@
     <col customWidth="1" min="7" max="7" width="10.71"/>
     <col customWidth="1" min="8" max="8" width="22.14"/>
     <col customWidth="1" min="9" max="9" width="23.29"/>
-    <col customWidth="1" min="10" max="26" width="10.71"/>
+    <col customWidth="1" min="10" max="10" width="71.29"/>
+    <col customWidth="1" min="11" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -18593,34 +18759,37 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>10.0</v>
@@ -18628,51 +18797,71 @@
       <c r="F2" s="2">
         <v>5.0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="B3" s="5"/>
+      <c r="J3" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J4" s="19" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J5" s="19" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2"/>
+      <c r="J6" s="19" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>10.0</v>
@@ -18680,52 +18869,76 @@
       <c r="F7" s="2">
         <v>5.0</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="B8" s="5"/>
+      <c r="J8" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J9" s="19" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>190</v>
+        <v>196</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J10" s="19" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="J12" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>194</v>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>10.0</v>
@@ -18733,51 +18946,69 @@
       <c r="F13" s="2">
         <v>15.0</v>
       </c>
+      <c r="G13" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>196</v>
+      <c r="A14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
+      <c r="J14" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>198</v>
+      <c r="A15" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="D15" s="20"/>
+      <c r="J15" s="19" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>200</v>
+      <c r="A16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D16" s="20"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>202</v>
+      <c r="A17" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>204</v>
+      <c r="A18" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -18789,17 +19020,17 @@
       <c r="D19" s="20"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>194</v>
+      <c r="D20" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="2">
         <v>10.0</v>
@@ -18807,49 +19038,58 @@
       <c r="F20" s="2">
         <v>15.0</v>
       </c>
+      <c r="G20" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>196</v>
+      <c r="A21" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>207</v>
+      <c r="A22" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>209</v>
+      <c r="A23" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>211</v>
+      <c r="A24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>213</v>
+      <c r="A25" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -18857,66 +19097,141 @@
     <row r="26" ht="12.75" customHeight="1"/>
     <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>194</v>
+      <c r="C28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="2">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="F28" s="2">
         <v>10.0</v>
       </c>
+      <c r="G28" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1"/>
+      <c r="A31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="41" ht="12.75" customHeight="1"/>
     <row r="42" ht="12.75" customHeight="1"/>
     <row r="43" ht="12.75" customHeight="1"/>
@@ -19902,7 +20217,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="17.57"/>
+    <col customWidth="1" min="2" max="2" width="55.14"/>
     <col customWidth="1" min="3" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="5" width="15.71"/>
     <col customWidth="1" min="6" max="6" width="12.71"/>
@@ -19916,7 +20231,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -19925,51 +20240,244 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
     <row r="23" ht="12.75" customHeight="1"/>
     <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
     <row r="26" ht="12.75" customHeight="1"/>
     <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1"/>
     <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
@@ -20971,8 +21479,8 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>214</v>
+      <c r="C1" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -21005,8 +21513,8 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>215</v>
+      <c r="C2" s="28" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -21016,8 +21524,8 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>216</v>
+      <c r="C3" s="28" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -21027,8 +21535,8 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>217</v>
+      <c r="C4" s="28" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -21038,19 +21546,19 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>218</v>
+      <c r="C5" s="28" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>219</v>
+      <c r="C6" s="28" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -21060,8 +21568,8 @@
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>220</v>
+      <c r="C7" s="28" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -21071,19 +21579,19 @@
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>221</v>
+      <c r="C8" s="28" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>224</v>
+        <v>267</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -21093,85 +21601,85 @@
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>225</v>
+      <c r="C10" s="28" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>226</v>
+      <c r="C11" s="28" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>229</v>
+        <v>272</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>232</v>
+        <v>275</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>233</v>
+      <c r="C14" s="28" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>234</v>
+      <c r="C15" s="28" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>237</v>
+        <v>280</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>240</v>
+        <v>283</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -21179,43 +21687,43 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>242</v>
+        <v>285</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>243</v>
+      <c r="C19" s="28" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>246</v>
+        <v>289</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>247</v>
+      <c r="C21" s="28" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -21225,8 +21733,8 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>248</v>
+      <c r="C22" s="28" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -21236,8 +21744,8 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>249</v>
+      <c r="C23" s="28" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -21247,41 +21755,41 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>250</v>
+      <c r="C24" s="28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>253</v>
+        <v>296</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>256</v>
+        <v>299</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>259</v>
+        <v>302</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -21291,140 +21799,140 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>260</v>
+      <c r="C28" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>263</v>
+        <v>306</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>264</v>
+      <c r="C30" s="28" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>265</v>
+      <c r="C31" s="28" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>266</v>
+      <c r="C32" s="28" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>269</v>
+        <v>312</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>272</v>
+        <v>315</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>275</v>
+        <v>318</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>278</v>
+        <v>321</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>281</v>
+        <v>324</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>283</v>
+        <v>326</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>286</v>
+        <v>329</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>289</v>
+        <v>332</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -21434,30 +21942,30 @@
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>290</v>
+      <c r="C41" s="28" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>293</v>
+        <v>336</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>294</v>
+      <c r="C43" s="28" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
